--- a/AMD.xlsx
+++ b/AMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CB3521-114E-3046-BA84-17E168E87ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6702B19-B74D-C347-BEE5-5A2F54E1B2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="740" windowWidth="13640" windowHeight="17260" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Price</t>
   </si>
@@ -267,7 +267,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -290,6 +290,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -627,17 +628,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12295623-B6AF-424A-9429-F5411A9FAD84}">
-  <dimension ref="G1:M15"/>
+  <dimension ref="G1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="7:13">
       <c r="M1" s="19">
-        <v>45666</v>
+        <v>45693</v>
       </c>
     </row>
     <row r="2" spans="7:13">
@@ -645,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="7:13">
@@ -653,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>1623</v>
+        <v>1634</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="7:13">
@@ -665,7 +666,7 @@
       </c>
       <c r="L4" s="3">
         <f>L2*L3</f>
-        <v>196383</v>
+        <v>174838</v>
       </c>
     </row>
     <row r="5" spans="7:13">
@@ -673,11 +674,11 @@
         <v>4</v>
       </c>
       <c r="L5" s="3">
-        <f>3897+647+5374</f>
-        <v>9918</v>
+        <f>3787+1345+5734</f>
+        <v>10866</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="7:13">
@@ -685,11 +686,11 @@
         <v>5</v>
       </c>
       <c r="L6" s="3">
-        <f>1720</f>
-        <v>1720</v>
+        <f>1721</f>
+        <v>1721</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="7:13">
@@ -698,7 +699,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>188185</v>
+        <v>165693</v>
       </c>
     </row>
     <row r="8" spans="7:13">
@@ -732,7 +733,7 @@
       </c>
       <c r="L12" s="2">
         <f>NPV(L11,Model!Z20:EX20)+L5-L6</f>
-        <v>185909.10753714698</v>
+        <v>179707.92834168536</v>
       </c>
     </row>
     <row r="13" spans="7:13">
@@ -741,16 +742,36 @@
       </c>
       <c r="L13" s="6">
         <f>L12/L3</f>
-        <v>114.54658505061428</v>
+        <v>109.98037230213302</v>
       </c>
     </row>
     <row r="15" spans="7:13">
       <c r="L15" s="7">
         <f>L13/L2-1</f>
-        <v>-5.3334007846162934E-2</v>
+        <v>2.7853946748906733E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12">
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="19">
+        <v>45666</v>
+      </c>
+      <c r="L18" s="20">
+        <v>114.54658505061428</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12">
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19">
+        <v>45693</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -760,10 +781,10 @@
   <dimension ref="A1:EX32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z28" sqref="Z28"/>
+      <selection pane="bottomRight" activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -921,7 +942,9 @@
       <c r="Q5" s="17">
         <v>6819</v>
       </c>
-      <c r="R5" s="17"/>
+      <c r="R5" s="17">
+        <v>7658</v>
+      </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17">
         <v>6731</v>
@@ -939,40 +962,39 @@
         <v>22680</v>
       </c>
       <c r="Y5" s="17">
-        <f>X5*(1+Y26)</f>
-        <v>25628.399999999998</v>
+        <v>25785</v>
       </c>
       <c r="Z5" s="17">
         <f>Y5*(1+Z26)</f>
-        <v>32291.783999999996</v>
+        <v>31973.4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" ref="AA5:AG5" si="0">Z5*(1+AA26)</f>
-        <v>40364.729999999996</v>
+        <v>38687.813999999998</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="0"/>
-        <v>48437.675999999992</v>
+        <v>46425.376799999998</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="0"/>
-        <v>55703.327399999987</v>
+        <v>53389.183319999996</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="0"/>
-        <v>61273.660139999993</v>
+        <v>58728.101651999998</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="0"/>
-        <v>67401.026153999992</v>
+        <v>64600.911817200002</v>
       </c>
       <c r="AF5" s="17">
         <f>AE5*(1+AF26)</f>
-        <v>70771.077461699999</v>
+        <v>67830.95740806</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="0"/>
-        <v>74309.631334785008</v>
+        <v>71222.50527846301</v>
       </c>
       <c r="AH5" s="17"/>
       <c r="AI5" s="17"/>
@@ -1039,7 +1061,9 @@
       <c r="Q6" s="9">
         <v>3167</v>
       </c>
-      <c r="R6" s="9"/>
+      <c r="R6" s="9">
+        <v>3524</v>
+      </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9">
         <v>3863</v>
@@ -1057,8 +1081,7 @@
         <v>11278</v>
       </c>
       <c r="Y6" s="9">
-        <f>X6*(1+Y26)</f>
-        <v>12744.14</v>
+        <v>12114</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -1133,7 +1156,9 @@
       <c r="Q7" s="9">
         <v>233</v>
       </c>
-      <c r="R7" s="9"/>
+      <c r="R7" s="9">
+        <v>252</v>
+      </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9">
         <v>0</v>
@@ -1150,7 +1175,9 @@
       <c r="X7" s="9">
         <v>942</v>
       </c>
-      <c r="Y7" s="9"/>
+      <c r="Y7" s="9">
+        <v>946</v>
+      </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -1238,7 +1265,7 @@
       </c>
       <c r="R8" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3882</v>
       </c>
       <c r="S8" s="11"/>
       <c r="T8" s="11">
@@ -1263,7 +1290,7 @@
       </c>
       <c r="Y8" s="11">
         <f t="shared" si="1"/>
-        <v>12884.259999999998</v>
+        <v>12725</v>
       </c>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
@@ -1338,7 +1365,9 @@
       <c r="Q9" s="9">
         <v>1636</v>
       </c>
-      <c r="R9" s="9"/>
+      <c r="R9" s="9">
+        <v>1712</v>
+      </c>
       <c r="S9" s="9"/>
       <c r="T9" s="9">
         <v>1547</v>
@@ -1356,8 +1385,7 @@
         <v>5872</v>
       </c>
       <c r="Y9" s="9">
-        <f>X9</f>
-        <v>5872</v>
+        <v>6456</v>
       </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -1432,7 +1460,9 @@
       <c r="Q10" s="9">
         <v>721</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9">
+        <v>792</v>
+      </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9">
         <v>750</v>
@@ -1450,8 +1480,7 @@
         <v>2352</v>
       </c>
       <c r="Y10" s="9">
-        <f>X10</f>
-        <v>2352</v>
+        <v>2783</v>
       </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -1526,7 +1555,9 @@
       <c r="Q11" s="9">
         <v>352</v>
       </c>
-      <c r="R11" s="9"/>
+      <c r="R11" s="9">
+        <v>332</v>
+      </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9">
         <v>0</v>
@@ -1543,7 +1574,9 @@
       <c r="X11" s="9">
         <v>1869</v>
       </c>
-      <c r="Y11" s="9"/>
+      <c r="Y11" s="9">
+        <v>1448</v>
+      </c>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
@@ -1617,7 +1650,10 @@
       <c r="Q12" s="9">
         <v>-14</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="9">
+        <f>-11+186</f>
+        <v>175</v>
+      </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9">
         <v>-60</v>
@@ -1634,7 +1670,10 @@
       <c r="X12" s="9">
         <v>-34</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="9">
+        <f>-48+186</f>
+        <v>138</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1722,7 +1761,7 @@
       </c>
       <c r="R13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3011</v>
       </c>
       <c r="S13" s="11"/>
       <c r="T13" s="11">
@@ -1747,7 +1786,7 @@
       </c>
       <c r="Y13" s="11">
         <f t="shared" si="2"/>
-        <v>8224</v>
+        <v>10825</v>
       </c>
       <c r="Z13" s="11">
         <f t="shared" si="2"/>
@@ -1893,7 +1932,7 @@
       </c>
       <c r="R14" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>871</v>
       </c>
       <c r="S14" s="11"/>
       <c r="T14" s="11">
@@ -1918,7 +1957,7 @@
       </c>
       <c r="Y14" s="11">
         <f t="shared" si="3"/>
-        <v>4660.2599999999984</v>
+        <v>1900</v>
       </c>
       <c r="Z14" s="11">
         <f t="shared" si="3"/>
@@ -2050,7 +2089,9 @@
       <c r="Q15" s="9">
         <v>-23</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="9">
+        <v>-19</v>
+      </c>
       <c r="S15" s="9"/>
       <c r="T15" s="9">
         <v>-94</v>
@@ -2067,7 +2108,9 @@
       <c r="X15" s="9">
         <v>-106</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="9">
+        <v>-92</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -2141,7 +2184,9 @@
       <c r="Q16" s="9">
         <v>36</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="9">
+        <v>37</v>
+      </c>
       <c r="S16" s="9"/>
       <c r="T16" s="9">
         <v>-165</v>
@@ -2158,7 +2203,9 @@
       <c r="X16" s="9">
         <v>197</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="9">
+        <v>181</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -2246,7 +2293,7 @@
       </c>
       <c r="R17" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9">
@@ -2271,7 +2318,7 @@
       </c>
       <c r="Y17" s="9">
         <f t="shared" si="4"/>
-        <v>4660.2599999999984</v>
+        <v>1989</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="4"/>
@@ -2367,7 +2414,9 @@
       <c r="Q18" s="9">
         <v>-27</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="R18" s="9">
+        <v>419</v>
+      </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9">
         <v>31</v>
@@ -2385,8 +2434,7 @@
         <v>-346</v>
       </c>
       <c r="Y18" s="9">
-        <f>Y17*0.1</f>
-        <v>466.02599999999984</v>
+        <v>381</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -2461,7 +2509,9 @@
       <c r="Q19" s="9">
         <v>7</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="9">
+        <v>12</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9">
         <v>0</v>
@@ -2478,7 +2528,9 @@
       <c r="X19" s="9">
         <v>16</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="9">
+        <v>33</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2566,7 +2618,7 @@
       </c>
       <c r="R20" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15">
@@ -2591,523 +2643,523 @@
       </c>
       <c r="Y20" s="15">
         <f t="shared" ref="Y20" si="18">Y17-Y18+Y19</f>
-        <v>4194.2339999999986</v>
+        <v>1641</v>
       </c>
       <c r="Z20" s="15">
         <f>Z5*Z28</f>
-        <v>8072.945999999999</v>
+        <v>7993.35</v>
       </c>
       <c r="AA20" s="15">
         <f t="shared" ref="AA20:AG20" si="19">AA5*AA28</f>
-        <v>10091.182499999999</v>
+        <v>9671.9534999999996</v>
       </c>
       <c r="AB20" s="15">
         <f t="shared" si="19"/>
-        <v>12109.418999999998</v>
+        <v>11606.3442</v>
       </c>
       <c r="AC20" s="15">
         <f t="shared" si="19"/>
-        <v>13925.831849999997</v>
+        <v>13347.295829999999</v>
       </c>
       <c r="AD20" s="15">
         <f t="shared" si="19"/>
-        <v>15318.415034999998</v>
+        <v>14682.025412999999</v>
       </c>
       <c r="AE20" s="15">
         <f t="shared" si="19"/>
-        <v>16850.256538499998</v>
+        <v>16150.2279543</v>
       </c>
       <c r="AF20" s="15">
         <f t="shared" si="19"/>
-        <v>17692.769365425</v>
+        <v>16957.739352015</v>
       </c>
       <c r="AG20" s="15">
         <f t="shared" si="19"/>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AH20" s="15">
         <f>AG20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AI20" s="15">
         <f>AH20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AJ20" s="15">
         <f>AI20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AK20" s="15">
         <f>AJ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AL20" s="15">
         <f>AK20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AM20" s="15">
         <f>AL20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AN20" s="15">
         <f>AM20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AO20" s="15">
         <f>AN20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AP20" s="15">
         <f>AO20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AQ20" s="15">
         <f>AP20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AR20" s="15">
         <f>AQ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AS20" s="15">
         <f>AR20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AT20" s="15">
         <f>AS20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AU20" s="15">
         <f>AT20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AV20" s="15">
         <f>AU20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AW20" s="15">
         <f>AV20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AX20" s="15">
         <f>AW20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AY20" s="15">
         <f>AX20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="AZ20" s="15">
         <f>AY20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BA20" s="15">
         <f>AZ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BB20" s="15">
         <f>BA20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BC20" s="15">
         <f>BB20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BD20" s="15">
         <f>BC20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BE20" s="15">
         <f>BD20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BF20" s="15">
         <f>BE20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BG20" s="15">
         <f>BF20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BH20" s="15">
         <f>BG20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BI20" s="15">
         <f>BH20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BJ20" s="15">
         <f>BI20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BK20" s="15">
         <f>BJ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BL20" s="15">
         <f>BK20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BM20" s="15">
         <f>BL20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BN20" s="15">
         <f>BM20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BO20" s="15">
         <f>BN20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BP20" s="15">
         <f>BO20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BQ20" s="15">
         <f>BP20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BR20" s="15">
         <f>BQ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BS20" s="15">
         <f>BR20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BT20" s="15">
         <f>BS20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BU20" s="15">
         <f>BT20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BV20" s="15">
         <f>BU20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BW20" s="15">
         <f>BV20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BX20" s="15">
         <f>BW20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BY20" s="15">
         <f>BX20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="BZ20" s="15">
         <f>BY20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CA20" s="15">
         <f>BZ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CB20" s="15">
         <f>CA20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CC20" s="15">
         <f>CB20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CD20" s="15">
         <f>CC20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CE20" s="15">
         <f>CD20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CF20" s="15">
         <f>CE20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CG20" s="15">
         <f>CF20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CH20" s="15">
         <f>CG20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CI20" s="15">
         <f>CH20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CJ20" s="15">
         <f>CI20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CK20" s="15">
         <f>CJ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CL20" s="15">
         <f>CK20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CM20" s="15">
         <f>CL20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CN20" s="15">
         <f>CM20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CO20" s="15">
         <f>CN20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CP20" s="15">
         <f>CO20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CQ20" s="15">
         <f>CP20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CR20" s="15">
         <f>CQ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CS20" s="15">
         <f>CR20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CT20" s="15">
         <f>CS20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CU20" s="15">
         <f>CT20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CV20" s="15">
         <f>CU20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CW20" s="15">
         <f>CV20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CX20" s="15">
         <f>CW20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CY20" s="15">
         <f>CX20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="CZ20" s="15">
         <f>CY20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DA20" s="15">
         <f>CZ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DB20" s="15">
         <f>DA20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DC20" s="15">
         <f>DB20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DD20" s="15">
         <f>DC20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DE20" s="15">
         <f>DD20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DF20" s="15">
         <f>DE20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DG20" s="15">
         <f>DF20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DH20" s="15">
         <f>DG20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DI20" s="15">
         <f>DH20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DJ20" s="15">
         <f>DI20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DK20" s="15">
         <f>DJ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DL20" s="15">
         <f>DK20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DM20" s="15">
         <f>DL20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DN20" s="15">
         <f>DM20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DO20" s="15">
         <f>DN20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DP20" s="15">
         <f>DO20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DQ20" s="15">
         <f>DP20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DR20" s="15">
         <f>DQ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DS20" s="15">
         <f>DR20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DT20" s="15">
         <f>DS20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DU20" s="15">
         <f>DT20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DV20" s="15">
         <f>DU20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DW20" s="15">
         <f>DV20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DX20" s="15">
         <f>DW20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DY20" s="15">
         <f>DX20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="DZ20" s="15">
         <f>DY20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EA20" s="15">
         <f>DZ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EB20" s="15">
         <f>EA20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EC20" s="15">
         <f>EB20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="ED20" s="15">
         <f>EC20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EE20" s="15">
         <f>ED20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EF20" s="15">
         <f>EE20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EG20" s="15">
         <f>EF20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EH20" s="15">
         <f>EG20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EI20" s="15">
         <f>EH20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EJ20" s="15">
         <f>EI20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EK20" s="15">
         <f>EJ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EL20" s="15">
         <f>EK20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EM20" s="15">
         <f>EL20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EN20" s="15">
         <f>EM20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EO20" s="15">
         <f>EN20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EP20" s="15">
         <f>EO20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EQ20" s="15">
         <f>EP20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="ER20" s="15">
         <f>EQ20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="ES20" s="15">
         <f>ER20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="ET20" s="15">
         <f>ES20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EU20" s="15">
         <f>ET20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EV20" s="15">
         <f>EU20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EW20" s="15">
         <f>EV20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
       <c r="EX20" s="15">
         <f>EW20*(1+Main!$L$10)</f>
-        <v>18577.407833696252</v>
+        <v>17805.626319615752</v>
       </c>
     </row>
     <row r="21" spans="2:154" s="10" customFormat="1">
@@ -3115,124 +3167,124 @@
         <v>38</v>
       </c>
       <c r="C21" s="12">
-        <f>C20/C22</f>
+        <f t="shared" ref="C21:R21" si="20">C20/C22</f>
         <v>0.45085296506904954</v>
       </c>
       <c r="D21" s="12">
-        <f>D20/D22</f>
+        <f t="shared" si="20"/>
         <v>0.57629870129870131</v>
       </c>
       <c r="E21" s="12">
-        <f>E20/E22</f>
+        <f t="shared" si="20"/>
         <v>0.75040650406504061</v>
       </c>
       <c r="F21" s="12">
-        <f>F20/F22</f>
+        <f t="shared" si="20"/>
         <v>0.79251423921887709</v>
       </c>
       <c r="G21" s="12">
-        <f>G20/G22</f>
+        <f t="shared" si="20"/>
         <v>0.55744680851063833</v>
       </c>
       <c r="H21" s="12">
-        <f>H20/H22</f>
+        <f t="shared" si="20"/>
         <v>0.27389705882352944</v>
       </c>
       <c r="I21" s="12">
-        <f>I20/I22</f>
+        <f t="shared" si="20"/>
         <v>4.0615384615384616E-2</v>
       </c>
       <c r="J21" s="12">
-        <f>J20/J22</f>
+        <f t="shared" si="20"/>
         <v>1.336728198599618E-2</v>
       </c>
       <c r="K21" s="12">
-        <f>K20/K22</f>
+        <f t="shared" si="20"/>
         <v>-8.6281812538795785E-2</v>
       </c>
       <c r="L21" s="12">
-        <f>L20/L22</f>
+        <f t="shared" si="20"/>
         <v>1.6594960049170254E-2</v>
       </c>
       <c r="M21" s="12">
-        <f>M20/M22</f>
+        <f t="shared" si="20"/>
         <v>0.18354818907305095</v>
       </c>
       <c r="N21" s="12">
-        <f>N20/N22</f>
+        <f t="shared" si="20"/>
         <v>21.516129032258064</v>
       </c>
       <c r="O21" s="12">
-        <f>O20/O22</f>
+        <f t="shared" si="20"/>
         <v>7.5045759609517995E-2</v>
       </c>
       <c r="P21" s="12">
-        <f>P20/P22</f>
+        <f t="shared" si="20"/>
         <v>0.16188149053145998</v>
       </c>
       <c r="Q21" s="12">
-        <f>Q20/Q22</f>
+        <f t="shared" si="20"/>
         <v>0.47127139364303178</v>
       </c>
-      <c r="R21" s="12" t="e">
-        <f>R20/R22</f>
-        <v>#DIV/0!</v>
+      <c r="R21" s="12">
+        <f t="shared" si="20"/>
+        <v>0.29498164014687883</v>
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="12">
-        <f>T20/T22</f>
+        <f t="shared" ref="T21:AG21" si="21">T20/T22</f>
         <v>0.30446428571428569</v>
       </c>
       <c r="U21" s="12">
-        <f>U20/U22</f>
+        <f t="shared" si="21"/>
         <v>2.0629660314830156</v>
       </c>
       <c r="V21" s="12">
-        <f>V20/V22</f>
+        <f t="shared" si="21"/>
         <v>2.5728234336859237</v>
       </c>
       <c r="W21" s="12">
-        <f>W20/W22</f>
+        <f t="shared" si="21"/>
         <v>0.84022915340547422</v>
       </c>
       <c r="X21" s="12">
-        <f>X20/X22</f>
+        <f t="shared" si="21"/>
         <v>0.52553846153846151</v>
       </c>
       <c r="Y21" s="12">
-        <f>Y20/Y22</f>
-        <v>2.4817952662721887</v>
-      </c>
-      <c r="Z21" s="12" t="e">
-        <f>Z20/Z22</f>
+        <f t="shared" si="21"/>
+        <v>1.0024434941967013</v>
+      </c>
+      <c r="Z21" s="12">
+        <f t="shared" si="21"/>
+        <v>4.88292608430055</v>
+      </c>
+      <c r="AA21" s="12">
+        <f t="shared" si="21"/>
+        <v>5.9083405620036649</v>
+      </c>
+      <c r="AB21" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA21" s="12" t="e">
-        <f>AA20/AA22</f>
+      <c r="AC21" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB21" s="12" t="e">
-        <f>AB20/AB22</f>
+      <c r="AD21" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC21" s="12" t="e">
-        <f>AC20/AC22</f>
+      <c r="AE21" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD21" s="12" t="e">
-        <f>AD20/AD22</f>
+      <c r="AF21" s="12" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE21" s="12" t="e">
-        <f>AE20/AE22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF21" s="12" t="e">
-        <f>AF20/AF22</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AG21" s="12" t="e">
-        <f>AG20/AG22</f>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AH21" s="12"/>
@@ -3300,7 +3352,9 @@
       <c r="Q22" s="9">
         <v>1636</v>
       </c>
-      <c r="R22" s="9"/>
+      <c r="R22" s="9">
+        <v>1634</v>
+      </c>
       <c r="S22" s="9"/>
       <c r="T22" s="9">
         <v>1120</v>
@@ -3318,11 +3372,16 @@
         <v>1625</v>
       </c>
       <c r="Y22" s="9">
-        <f>X22*1.04</f>
-        <v>1690</v>
-      </c>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+        <v>1637</v>
+      </c>
+      <c r="Z22" s="9">
+        <f>Y22</f>
+        <v>1637</v>
+      </c>
+      <c r="AA22" s="9">
+        <f>Z22</f>
+        <v>1637</v>
+      </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -3442,141 +3501,141 @@
         <v>544</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" ref="D24:AL24" si="20">D20+D23</f>
+        <f t="shared" ref="D24:AL24" si="22">D20+D23</f>
         <v>711</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>916</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>971</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>787</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>416</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>68</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-119</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>281</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>707</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>101</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>264</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>802</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>482</v>
       </c>
       <c r="S24" s="9"/>
       <c r="T24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>349</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2507</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3142</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1282</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>885</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="20"/>
-        <v>4194.2339999999986</v>
+        <f t="shared" si="22"/>
+        <v>1641</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" si="20"/>
-        <v>8072.945999999999</v>
+        <f t="shared" si="22"/>
+        <v>7993.35</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="20"/>
-        <v>10091.182499999999</v>
+        <f t="shared" si="22"/>
+        <v>9671.9534999999996</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="20"/>
-        <v>12109.418999999998</v>
+        <f t="shared" si="22"/>
+        <v>11606.3442</v>
       </c>
       <c r="AC24" s="9">
-        <f t="shared" si="20"/>
-        <v>13925.831849999997</v>
+        <f t="shared" si="22"/>
+        <v>13347.295829999999</v>
       </c>
       <c r="AD24" s="9">
-        <f t="shared" si="20"/>
-        <v>15318.415034999998</v>
+        <f t="shared" si="22"/>
+        <v>14682.025412999999</v>
       </c>
       <c r="AE24" s="9">
-        <f t="shared" si="20"/>
-        <v>16850.256538499998</v>
+        <f t="shared" si="22"/>
+        <v>16150.2279543</v>
       </c>
       <c r="AF24" s="9">
-        <f t="shared" si="20"/>
-        <v>17692.769365425</v>
+        <f t="shared" si="22"/>
+        <v>16957.739352015</v>
       </c>
       <c r="AG24" s="9">
-        <f t="shared" si="20"/>
-        <v>18577.407833696252</v>
+        <f t="shared" si="22"/>
+        <v>17805.626319615752</v>
       </c>
       <c r="AH24" s="9">
-        <f t="shared" si="20"/>
-        <v>18577.407833696252</v>
+        <f t="shared" si="22"/>
+        <v>17805.626319615752</v>
       </c>
       <c r="AI24" s="9">
-        <f t="shared" si="20"/>
-        <v>18577.407833696252</v>
+        <f t="shared" si="22"/>
+        <v>17805.626319615752</v>
       </c>
       <c r="AJ24" s="9">
-        <f t="shared" si="20"/>
-        <v>18577.407833696252</v>
+        <f t="shared" si="22"/>
+        <v>17805.626319615752</v>
       </c>
       <c r="AK24" s="9">
-        <f t="shared" si="20"/>
-        <v>18577.407833696252</v>
+        <f t="shared" si="22"/>
+        <v>17805.626319615752</v>
       </c>
       <c r="AL24" s="9">
-        <f t="shared" si="20"/>
-        <v>18577.407833696252</v>
+        <f t="shared" si="22"/>
+        <v>17805.626319615752</v>
       </c>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9"/>
@@ -3662,21 +3721,21 @@
         <v>0.68329406944586712</v>
       </c>
       <c r="W26" s="13">
-        <f t="shared" ref="W26:X26" si="21">W5/V5-1</f>
+        <f t="shared" ref="W26:X26" si="23">W5/V5-1</f>
         <v>0.43610806863818907</v>
       </c>
       <c r="X26" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-3.9023770179229644E-2</v>
       </c>
       <c r="Y26" s="13">
         <v>0.13</v>
       </c>
       <c r="Z26" s="13">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AA26" s="13">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AB26" s="13">
         <v>0.2</v>
@@ -3735,24 +3794,24 @@
         <v>0.42608824840291187</v>
       </c>
       <c r="U27" s="13">
-        <f t="shared" ref="U27:Y27" si="22">U8/U5</f>
+        <f t="shared" ref="U27:Y27" si="24">U8/U5</f>
         <v>0.44525248386766364</v>
       </c>
       <c r="V27" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.48247535596933189</v>
       </c>
       <c r="W27" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.4492606245498072</v>
       </c>
       <c r="X27" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46119929453262787</v>
       </c>
       <c r="Y27" s="13">
-        <f t="shared" si="22"/>
-        <v>0.5027336860670194</v>
+        <f t="shared" si="24"/>
+        <v>0.49350397517936784</v>
       </c>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
@@ -3801,24 +3860,24 @@
         <v>5.1849650869113056E-2</v>
       </c>
       <c r="U28" s="13">
-        <f t="shared" ref="U28:Y28" si="23">U24/U5</f>
+        <f t="shared" ref="U28:Y28" si="25">U24/U5</f>
         <v>0.25678582402949912</v>
       </c>
       <c r="V28" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.19118899841791409</v>
       </c>
       <c r="W28" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.4319732214736662E-2</v>
       </c>
       <c r="X28" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.9021164021164019E-2</v>
       </c>
       <c r="Y28" s="13">
-        <f t="shared" si="23"/>
-        <v>0.16365571007163923</v>
+        <f t="shared" si="25"/>
+        <v>6.3641652123327522E-2</v>
       </c>
       <c r="Z28" s="13">
         <v>0.25</v>
@@ -3828,27 +3887,27 @@
         <v>0.25</v>
       </c>
       <c r="AB28" s="13">
-        <f t="shared" ref="AB28:AG28" si="24">AA28</f>
+        <f t="shared" ref="AB28:AG28" si="26">AA28</f>
         <v>0.25</v>
       </c>
       <c r="AC28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AD28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AE28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AF28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AG28" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="AH28" s="13"/>
@@ -3890,24 +3949,24 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="U29" s="13">
-        <f t="shared" ref="U29:Y29" si="25">U18/U17</f>
+        <f t="shared" ref="U29:Y29" si="27">U18/U17</f>
         <v>-0.94901960784313721</v>
       </c>
       <c r="V29" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.13982011447260834</v>
       </c>
       <c r="W29" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.10304054054054054</v>
       </c>
       <c r="X29" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.7032520325203252</v>
       </c>
       <c r="Y29" s="13">
-        <f t="shared" si="25"/>
-        <v>0.1</v>
+        <f t="shared" si="27"/>
+        <v>0.19155354449472098</v>
       </c>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
@@ -3936,15 +3995,15 @@
         <v>7.7678571428571486E-2</v>
       </c>
       <c r="V32" s="13">
-        <f t="shared" ref="V32:X32" si="26">V22/U22-1</f>
+        <f t="shared" ref="V32:X32" si="28">V22/U22-1</f>
         <v>1.8227009113504611E-2</v>
       </c>
       <c r="W32" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0.27827502034174123</v>
       </c>
       <c r="X32" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.4373010821133088E-2</v>
       </c>
     </row>
